--- a/example/templateIterator.xlsx
+++ b/example/templateIterator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="27870" windowHeight="12885"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -70,6 +70,24 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -82,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -90,16 +108,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +485,7 @@
     <col min="7" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,39 +505,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="P7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
